--- a/trunk/Time Tracking/Mac Van Anh.xlsx
+++ b/trunk/Time Tracking/Mac Van Anh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -46,15 +46,33 @@
   </si>
   <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>Create SRS template</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Create WBS</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Mac Van Anh</t>
+  </si>
+  <si>
+    <t>Online Judge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -239,19 +257,23 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,10 +282,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +579,7 @@
   <dimension ref="B1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,734 +593,764 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="20.25" thickTop="1">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="9">
+        <v>151135163</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickTop="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="10"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="10"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="10"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="10"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="5">
+        <v>41183</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="10"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="5">
+        <v>41184</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="5">
+        <v>41185</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="10"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="10"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="10"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="10"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="10"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="10"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="10"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="10"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="10"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="10"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="10"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="10"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="10"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="10"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="10"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="10"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="10"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="10"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="10"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="10"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="10"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="10"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="10"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="10"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="10"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="10"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="10"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="10"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="10"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="10"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="10"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="10"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="10"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="10"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="10"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="10"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="10"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="10"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="10"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="10"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="10"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="10"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="10"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="10"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="10"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="10"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="10"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="10"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="10"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="10"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="10"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="10"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="10"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="10"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="10"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="10"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="10"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="10"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="10"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="10"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="10"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="10"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="10"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="10"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="10"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="10"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="10"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="10"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="10"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="10"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="10"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="10"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="10"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="10"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="10"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="10"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="10"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="10"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="10"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="10"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="10"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="10"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="10"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="10"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="10"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="10"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="10"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="10"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="10"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="10"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="10"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>

--- a/trunk/Time Tracking/Mac Van Anh.xlsx
+++ b/trunk/Time Tracking/Mac Van Anh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Online Judge</t>
+  </si>
+  <si>
+    <t>Create documents listing</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="B1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,11 +723,21 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="5">
+        <v>41186</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="5"/>

--- a/trunk/Time Tracking/Mac Van Anh.xlsx
+++ b/trunk/Time Tracking/Mac Van Anh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Create documents listing</t>
+  </si>
+  <si>
+    <t>Update SRS</t>
+  </si>
+  <si>
+    <t>Create Requirement Manager Document</t>
+  </si>
+  <si>
+    <t>Create Use case</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
   </si>
 </sst>
 </file>
@@ -80,7 +92,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,7 +100,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -96,7 +108,7 @@
       <b/>
       <sz val="15"/>
       <color theme="4" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -104,7 +116,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -579,22 +591,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F103"/>
+  <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6" ht="20.25" thickTop="1">
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -650,56 +662,102 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="5">
+        <v>41184</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="5">
+        <v>41185</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="5">
+        <v>41186</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="5">
+        <v>41187</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5">
-        <v>41183</v>
+        <v>41188</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="5">
-        <v>41184</v>
+        <v>41190</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -707,16 +765,16 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="5">
-        <v>41185</v>
+        <v>41191</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -724,13 +782,13 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5">
-        <v>41186</v>
+        <v>41191</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -1333,41 +1391,6 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="5"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="5"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="5"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="5"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="5"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1376,10 +1399,10 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E98">
       <formula1>"Requirement, Design, Code, Test, Deliver, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F98">
       <formula1>"Record, Report, Test case, Database, Product"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1394,7 +1417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1406,7 +1429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Time Tracking/Mac Van Anh.xlsx
+++ b/trunk/Time Tracking/Mac Van Anh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -48,40 +48,67 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Create SRS template</t>
-  </si>
-  <si>
     <t>Requirement</t>
   </si>
   <si>
     <t>Record</t>
   </si>
   <si>
-    <t>Create WBS</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>Mac Van Anh</t>
   </si>
   <si>
     <t>Online Judge</t>
   </si>
   <si>
-    <t>Create documents listing</t>
-  </si>
-  <si>
-    <t>Update SRS</t>
-  </si>
-  <si>
-    <t>Create Requirement Manager Document</t>
-  </si>
-  <si>
-    <t>Create Use case</t>
-  </si>
-  <si>
-    <t>Team meeting</t>
+    <t>Create Introduction</t>
+  </si>
+  <si>
+    <t>Create Goals</t>
+  </si>
+  <si>
+    <t>Create Approval</t>
+  </si>
+  <si>
+    <t>Learn and understand requirement</t>
+  </si>
+  <si>
+    <t>Analysis SRS sample</t>
+  </si>
+  <si>
+    <t>DB Design document</t>
+  </si>
+  <si>
+    <t>Interface design document</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>Collection requirements</t>
+  </si>
+  <si>
+    <t>Analysis requirements</t>
+  </si>
+  <si>
+    <t>Remove requirement</t>
+  </si>
+  <si>
+    <t>Create System Features</t>
+  </si>
+  <si>
+    <t>Create External Interface Requirements</t>
+  </si>
+  <si>
+    <t>contest manager page</t>
+  </si>
+  <si>
+    <t>remove contest</t>
+  </si>
+  <si>
+    <t>edit contest</t>
+  </si>
+  <si>
+    <t>Add contest</t>
   </si>
 </sst>
 </file>
@@ -92,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,7 +127,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +135,7 @@
       <b/>
       <sz val="15"/>
       <color theme="4" tint="0.79998168889431442"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,7 +143,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -591,22 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F98"/>
+  <dimension ref="B1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="63.25" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="20.25" thickTop="1">
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -621,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="2" t="s">
@@ -641,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickTop="1">
@@ -663,258 +690,428 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5">
-        <v>41184</v>
+        <v>41156</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="5">
-        <v>41185</v>
+        <v>41157</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="5">
-        <v>41186</v>
+        <v>41158</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="5">
-        <v>41187</v>
+        <v>41159</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="5">
-        <v>41188</v>
+        <v>41160</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="5">
-        <v>41190</v>
+        <v>41161</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="5">
-        <v>41191</v>
+        <v>41162</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="5">
-        <v>41191</v>
+        <v>41163</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="5">
+        <v>41164</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="5">
+        <v>41165</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="5">
+        <v>41166</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="5">
+        <v>41169</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="5">
+        <v>41170</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="5">
+        <v>41171</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="5"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="5">
+        <v>41172</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="5">
+        <v>41178</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="B22" s="5">
+        <v>41179</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="5">
+        <v>41180</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="5">
+        <v>41181</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="5">
+        <v>41182</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="5">
+        <v>41183</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="5">
+        <v>41215</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="5">
+        <v>41216</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="B29" s="5">
+        <v>41217</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="5">
+        <v>41218</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="5"/>
@@ -1391,6 +1588,13 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="5"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1399,10 +1603,10 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E99">
       <formula1>"Requirement, Design, Code, Test, Deliver, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F99">
       <formula1>"Record, Report, Test case, Database, Product"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1417,7 +1621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1429,7 +1633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Time Tracking/Mac Van Anh.xlsx
+++ b/trunk/Time Tracking/Mac Van Anh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Add contest</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -620,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1056,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1073,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1090,7 +1093,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1107,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>

--- a/trunk/Time Tracking/Mac Van Anh.xlsx
+++ b/trunk/Time Tracking/Mac Van Anh.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>T2A</t>
   </si>
 </sst>
 </file>
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,7 +660,9 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="3" t="s">
